--- a/Result_QuickSort.xlsx
+++ b/Result_QuickSort.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="14">
   <si>
     <t>Chip</t>
   </si>
@@ -55,6 +55,9 @@
   </si>
   <si>
     <t>Arduino MEGA (ATMEGA2560 16AU)</t>
+  </si>
+  <si>
+    <t>ESP32-C3 Super Mini</t>
   </si>
 </sst>
 </file>
@@ -143,7 +146,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -168,6 +171,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="3" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="3" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -2034,20 +2046,244 @@
       </c>
     </row>
     <row r="101" ht="14.25" customHeight="1"/>
-    <row r="102" ht="14.25" customHeight="1"/>
-    <row r="103" ht="14.25" customHeight="1"/>
-    <row r="104" ht="14.25" customHeight="1"/>
-    <row r="105" ht="14.25" customHeight="1"/>
-    <row r="106" ht="14.25" customHeight="1"/>
-    <row r="107" ht="14.25" customHeight="1"/>
-    <row r="108" ht="14.25" customHeight="1"/>
-    <row r="109" ht="14.25" customHeight="1"/>
-    <row r="110" ht="14.25" customHeight="1"/>
-    <row r="111" ht="14.25" customHeight="1"/>
-    <row r="112" ht="14.25" customHeight="1"/>
-    <row r="113" ht="14.25" customHeight="1"/>
-    <row r="114" ht="14.25" customHeight="1"/>
-    <row r="115" ht="14.25" customHeight="1"/>
+    <row r="102" ht="14.25" customHeight="1">
+      <c r="A102" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B102" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C102" s="8">
+        <v>1000.0</v>
+      </c>
+      <c r="D102" s="8">
+        <v>5.0</v>
+      </c>
+      <c r="E102" s="13">
+        <v>1361.0</v>
+      </c>
+    </row>
+    <row r="103" ht="14.25" customHeight="1">
+      <c r="A103" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B103" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C103" s="10">
+        <v>1500.0</v>
+      </c>
+      <c r="D103" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="E103" s="14">
+        <v>2171.0</v>
+      </c>
+    </row>
+    <row r="104" ht="14.25" customHeight="1">
+      <c r="A104" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B104" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C104" s="10">
+        <v>2000.0</v>
+      </c>
+      <c r="D104" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="E104" s="14">
+        <v>3009.0</v>
+      </c>
+    </row>
+    <row r="105" ht="14.25" customHeight="1">
+      <c r="A105" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B105" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C105" s="10">
+        <v>4000.0</v>
+      </c>
+      <c r="D105" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="E105" s="14">
+        <v>6829.0</v>
+      </c>
+    </row>
+    <row r="106" ht="14.25" customHeight="1">
+      <c r="A106" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B106" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C106" s="10">
+        <v>10000.0</v>
+      </c>
+      <c r="D106" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="E106" s="14">
+        <v>20544.0</v>
+      </c>
+    </row>
+    <row r="107" ht="14.25" customHeight="1">
+      <c r="A107" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B107" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C107" s="10">
+        <v>20000.0</v>
+      </c>
+      <c r="D107" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="E107" s="14">
+        <v>51218.0</v>
+      </c>
+    </row>
+    <row r="108" ht="14.25" customHeight="1">
+      <c r="A108" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B108" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C108" s="10">
+        <v>25000.0</v>
+      </c>
+      <c r="D108" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="E108" s="14">
+        <v>70646.0</v>
+      </c>
+    </row>
+    <row r="109" ht="14.25" customHeight="1">
+      <c r="A109" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B109" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C109" s="10">
+        <v>25200.0</v>
+      </c>
+      <c r="D109" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="E109" s="14">
+        <v>72364.0</v>
+      </c>
+    </row>
+    <row r="110" ht="14.25" customHeight="1">
+      <c r="A110" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B110" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C110" s="14">
+        <v>26000.0</v>
+      </c>
+      <c r="D110" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="E110" s="14">
+        <v>72364.0</v>
+      </c>
+    </row>
+    <row r="111" ht="14.25" customHeight="1">
+      <c r="A111" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B111" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C111" s="14">
+        <v>30000.0</v>
+      </c>
+      <c r="D111" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="E111" s="14">
+        <v>93642.0</v>
+      </c>
+    </row>
+    <row r="112" ht="14.25" customHeight="1">
+      <c r="A112" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B112" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C112" s="14">
+        <v>60000.0</v>
+      </c>
+      <c r="D112" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="E112" s="14">
+        <v>270354.0</v>
+      </c>
+    </row>
+    <row r="113" ht="14.25" customHeight="1">
+      <c r="A113" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B113" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C113" s="14">
+        <v>62000.0</v>
+      </c>
+      <c r="D113" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="E113" s="14">
+        <v>296101.0</v>
+      </c>
+    </row>
+    <row r="114" ht="14.25" customHeight="1">
+      <c r="A114" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B114" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C114" s="14">
+        <v>64000.0</v>
+      </c>
+      <c r="D114" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="E114" s="14">
+        <v>321231.0</v>
+      </c>
+    </row>
+    <row r="115" ht="14.25" customHeight="1">
+      <c r="A115" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B115" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C115" s="14">
+        <v>64150.0</v>
+      </c>
+      <c r="D115" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="E115" s="14">
+        <v>317440.0</v>
+      </c>
+    </row>
     <row r="116" ht="14.25" customHeight="1"/>
     <row r="117" ht="14.25" customHeight="1"/>
     <row r="118" ht="14.25" customHeight="1"/>
